--- a/Data/EC/NIT-9002258988.xlsx
+++ b/Data/EC/NIT-9002258988.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFA1D6BF-B5B9-478A-8674-B0CF8798767D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{23B81DAF-4E0C-4ECF-9933-0C58EEC0BE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{51E4E08A-1CC7-447F-8CC3-65FEEBACD8AB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E04835CD-2F10-465A-942A-561790E6CEAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,6 +65,27 @@
     <t>CC</t>
   </si>
   <si>
+    <t>22800993</t>
+  </si>
+  <si>
+    <t>DEIVIS DE JESUS PAJARO ESPINOSA</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>45514619</t>
+  </si>
+  <si>
+    <t>LIDIA MARIA CARDONA PEREZ</t>
+  </si>
+  <si>
+    <t>1050945650</t>
+  </si>
+  <si>
+    <t>ANGELINA ROSSI GONZALEZ</t>
+  </si>
+  <si>
     <t>1050954580</t>
   </si>
   <si>
@@ -74,37 +95,37 @@
     <t>1612</t>
   </si>
   <si>
-    <t>1050945650</t>
-  </si>
-  <si>
-    <t>ANGELINA ROSSI GONZALEZ</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>45514619</t>
-  </si>
-  <si>
-    <t>LIDIA MARIA CARDONA PEREZ</t>
-  </si>
-  <si>
-    <t>22800993</t>
-  </si>
-  <si>
-    <t>DEIVIS DE JESUS PAJARO ESPINOSA</t>
-  </si>
-  <si>
     <t>1128049796</t>
   </si>
   <si>
     <t>CLAUDIA RAFAELA PADILLA RAMIREZ</t>
   </si>
   <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
     <t>1906</t>
   </si>
   <si>
-    <t>1907</t>
+    <t>64702479</t>
+  </si>
+  <si>
+    <t>GISELA LORENA LOPEZ ENAMORADO</t>
+  </si>
+  <si>
+    <t>2406</t>
   </si>
   <si>
     <t>1044906744</t>
@@ -113,18 +134,6 @@
     <t>MARIA CLAUDIA JAIMES PEREIRA</t>
   </si>
   <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
     <t>20325192</t>
   </si>
   <si>
@@ -150,15 +159,6 @@
   </si>
   <si>
     <t>2403</t>
-  </si>
-  <si>
-    <t>64702479</t>
-  </si>
-  <si>
-    <t>GISELA LORENA LOPEZ ENAMORADO</t>
-  </si>
-  <si>
-    <t>2406</t>
   </si>
   <si>
     <t>30773549</t>
@@ -578,7 +578,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E4B81D0-FEA7-169E-EAE9-822CA1FF41ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58C2783F-F3CF-300D-5F86-CBFD05F84F20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -929,7 +929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A9F2B6-C59E-4E0B-9061-8F603B31430A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC82107-2AE9-4D55-9C4A-31E4AF3A0ABE}">
   <dimension ref="B2:J40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1107,10 +1107,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>28092</v>
+        <v>33054</v>
       </c>
       <c r="G16" s="18">
-        <v>702000</v>
+        <v>826361</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1127,13 +1127,13 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>66000</v>
+        <v>33054</v>
       </c>
       <c r="G17" s="18">
-        <v>1650000</v>
+        <v>826361</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1144,19 +1144,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>16</v>
-      </c>
       <c r="E18" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>33054</v>
+        <v>66000</v>
       </c>
       <c r="G18" s="18">
-        <v>826361</v>
+        <v>1650000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1167,19 +1167,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="E19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F19" s="18">
-        <v>33054</v>
+        <v>28092</v>
       </c>
       <c r="G19" s="18">
-        <v>826361</v>
+        <v>702000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1199,7 +1199,7 @@
         <v>21</v>
       </c>
       <c r="F20" s="18">
-        <v>33054</v>
+        <v>28647</v>
       </c>
       <c r="G20" s="18">
         <v>828116</v>
@@ -1236,16 +1236,16 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>25</v>
-      </c>
       <c r="F22" s="18">
-        <v>17667</v>
+        <v>33054</v>
       </c>
       <c r="G22" s="18">
         <v>828116</v>
@@ -1265,7 +1265,7 @@
         <v>20</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F23" s="18">
         <v>33054</v>
@@ -1282,16 +1282,16 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F24" s="18">
-        <v>33125</v>
+        <v>33054</v>
       </c>
       <c r="G24" s="18">
         <v>828116</v>
@@ -1328,19 +1328,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F26" s="18">
-        <v>33125</v>
+        <v>17333</v>
       </c>
       <c r="G26" s="18">
-        <v>828116</v>
+        <v>1300000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1351,16 +1351,16 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F27" s="18">
-        <v>33054</v>
+        <v>1104</v>
       </c>
       <c r="G27" s="18">
         <v>828116</v>
@@ -1374,16 +1374,16 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F28" s="18">
-        <v>1104</v>
+        <v>33125</v>
       </c>
       <c r="G28" s="18">
         <v>828116</v>
@@ -1397,16 +1397,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F29" s="18">
-        <v>28647</v>
+        <v>33125</v>
       </c>
       <c r="G29" s="18">
         <v>828116</v>
@@ -1420,19 +1420,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F30" s="18">
-        <v>33600</v>
+        <v>17667</v>
       </c>
       <c r="G30" s="18">
-        <v>1800000</v>
+        <v>828116</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1452,10 +1452,10 @@
         <v>34</v>
       </c>
       <c r="F31" s="18">
-        <v>27066</v>
+        <v>33600</v>
       </c>
       <c r="G31" s="18">
-        <v>1000000</v>
+        <v>1800000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1475,10 +1475,10 @@
         <v>37</v>
       </c>
       <c r="F32" s="18">
-        <v>72000</v>
+        <v>27066</v>
       </c>
       <c r="G32" s="18">
-        <v>1800000</v>
+        <v>1000000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1498,10 +1498,10 @@
         <v>40</v>
       </c>
       <c r="F33" s="18">
-        <v>17333</v>
+        <v>72000</v>
       </c>
       <c r="G33" s="18">
-        <v>1300000</v>
+        <v>1800000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1518,7 +1518,7 @@
         <v>42</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F34" s="24">
         <v>27733</v>

--- a/Data/EC/NIT-9002258988.xlsx
+++ b/Data/EC/NIT-9002258988.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23B81DAF-4E0C-4ECF-9933-0C58EEC0BE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C60DFBEB-36AF-40DA-B440-2DD0E297C5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E04835CD-2F10-465A-942A-561790E6CEAC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{826BF0FE-C2B9-48A7-BAE1-F64E3C0CB460}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,6 +65,15 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1050954580</t>
+  </si>
+  <si>
+    <t>JEINNY ALEJANDRA DE LA CRUZ PUELLO</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
     <t>22800993</t>
   </si>
   <si>
@@ -86,37 +95,61 @@
     <t>ANGELINA ROSSI GONZALEZ</t>
   </si>
   <si>
-    <t>1050954580</t>
-  </si>
-  <si>
-    <t>JEINNY ALEJANDRA DE LA CRUZ PUELLO</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
     <t>1128049796</t>
   </si>
   <si>
     <t>CLAUDIA RAFAELA PADILLA RAMIREZ</t>
   </si>
   <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1044906744</t>
+  </si>
+  <si>
+    <t>MARIA CLAUDIA JAIMES PEREIRA</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
     <t>1911</t>
   </si>
   <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
+    <t>20325192</t>
+  </si>
+  <si>
+    <t>MARIA MARGARITA GARAY JIMENEZ</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>1193210960</t>
+  </si>
+  <si>
+    <t>SEBASTIAN JOSE BOLAÑO COGOLLO</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>1143346176</t>
+  </si>
+  <si>
+    <t>EVIS ADRIANA GUERRA BOLIVAR</t>
+  </si>
+  <si>
+    <t>2403</t>
   </si>
   <si>
     <t>64702479</t>
@@ -126,39 +159,6 @@
   </si>
   <si>
     <t>2406</t>
-  </si>
-  <si>
-    <t>1044906744</t>
-  </si>
-  <si>
-    <t>MARIA CLAUDIA JAIMES PEREIRA</t>
-  </si>
-  <si>
-    <t>20325192</t>
-  </si>
-  <si>
-    <t>MARIA MARGARITA GARAY JIMENEZ</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>1193210960</t>
-  </si>
-  <si>
-    <t>SEBASTIAN JOSE BOLAÑO COGOLLO</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>1143346176</t>
-  </si>
-  <si>
-    <t>EVIS ADRIANA GUERRA BOLIVAR</t>
-  </si>
-  <si>
-    <t>2403</t>
   </si>
   <si>
     <t>30773549</t>
@@ -263,7 +263,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -276,9 +278,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -478,23 +478,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -522,10 +522,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -578,7 +578,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58C2783F-F3CF-300D-5F86-CBFD05F84F20}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CB2442E-E4E8-BF9B-8681-5701DA7C84D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -929,7 +929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC82107-2AE9-4D55-9C4A-31E4AF3A0ABE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A7D94DF-A8CD-42F3-BBA4-65AA9C54713A}">
   <dimension ref="B2:J40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1107,10 +1107,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>33054</v>
+        <v>28092</v>
       </c>
       <c r="G16" s="18">
-        <v>826361</v>
+        <v>1250000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1127,13 +1127,13 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
         <v>33054</v>
       </c>
       <c r="G17" s="18">
-        <v>826361</v>
+        <v>910121</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1144,19 +1144,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F18" s="18">
-        <v>66000</v>
+        <v>33054</v>
       </c>
       <c r="G18" s="18">
-        <v>1650000</v>
+        <v>1423500</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1167,19 +1167,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>28092</v>
+        <v>66000</v>
       </c>
       <c r="G19" s="18">
-        <v>702000</v>
+        <v>2000000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1199,10 +1199,10 @@
         <v>21</v>
       </c>
       <c r="F20" s="18">
-        <v>28647</v>
+        <v>33054</v>
       </c>
       <c r="G20" s="18">
-        <v>828116</v>
+        <v>826361</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1225,7 +1225,7 @@
         <v>33054</v>
       </c>
       <c r="G21" s="18">
-        <v>828116</v>
+        <v>826361</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1248,7 +1248,7 @@
         <v>33054</v>
       </c>
       <c r="G22" s="18">
-        <v>828116</v>
+        <v>826361</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1259,16 +1259,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F23" s="18">
-        <v>33054</v>
+        <v>17667</v>
       </c>
       <c r="G23" s="18">
         <v>828116</v>
@@ -1288,13 +1288,13 @@
         <v>20</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F24" s="18">
         <v>33054</v>
       </c>
       <c r="G24" s="18">
-        <v>828116</v>
+        <v>826361</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1305,16 +1305,16 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F25" s="18">
-        <v>33054</v>
+        <v>33125</v>
       </c>
       <c r="G25" s="18">
         <v>828116</v>
@@ -1328,19 +1328,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>29</v>
-      </c>
       <c r="F26" s="18">
-        <v>17333</v>
+        <v>33054</v>
       </c>
       <c r="G26" s="18">
-        <v>1300000</v>
+        <v>826361</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1351,16 +1351,16 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F27" s="18">
-        <v>1104</v>
+        <v>33125</v>
       </c>
       <c r="G27" s="18">
         <v>828116</v>
@@ -1374,19 +1374,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F28" s="18">
-        <v>33125</v>
+        <v>28647</v>
       </c>
       <c r="G28" s="18">
-        <v>828116</v>
+        <v>826361</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1397,16 +1397,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F29" s="18">
-        <v>33125</v>
+        <v>1104</v>
       </c>
       <c r="G29" s="18">
         <v>828116</v>
@@ -1420,19 +1420,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="E30" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="16" t="s">
-        <v>24</v>
-      </c>
       <c r="F30" s="18">
-        <v>17667</v>
+        <v>33600</v>
       </c>
       <c r="G30" s="18">
-        <v>828116</v>
+        <v>1800000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1452,10 +1452,10 @@
         <v>34</v>
       </c>
       <c r="F31" s="18">
-        <v>33600</v>
+        <v>27066</v>
       </c>
       <c r="G31" s="18">
-        <v>1800000</v>
+        <v>1000000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1475,10 +1475,10 @@
         <v>37</v>
       </c>
       <c r="F32" s="18">
-        <v>27066</v>
+        <v>72000</v>
       </c>
       <c r="G32" s="18">
-        <v>1000000</v>
+        <v>1800000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1498,10 +1498,10 @@
         <v>40</v>
       </c>
       <c r="F33" s="18">
-        <v>72000</v>
+        <v>17333</v>
       </c>
       <c r="G33" s="18">
-        <v>1800000</v>
+        <v>1423500</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1518,13 +1518,13 @@
         <v>42</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F34" s="24">
         <v>27733</v>
       </c>
       <c r="G34" s="24">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H34" s="25"/>
       <c r="I34" s="25"/>
